--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2188482.884804272</v>
+        <v>2292662.519255344</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494965.654370343</v>
+        <v>9494965.654370345</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>7.823231064583622</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.2679020136997</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>233.3257147283068</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>155.5594962886089</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>92.29457296485806</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>308.0074902316575</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>155.7500758545484</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>150.8215551988344</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>325.3177998004601</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.72456219185311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.533415449082059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>103.0806938130268</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>180.9172429496418</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.0270735093607</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>182.2777079560311</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>101.1785556175222</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>26.1362719570587</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>87.27508091634331</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.2342243404117</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>243.4759147696092</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>66.39615665301152</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>227.3193523853186</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784698</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>19.72264368952201</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>237.1129912219085</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.3868790795869</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>272.8825050936841</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>141.9273329298512</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>133.745793352658</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>132.1341815222715</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>53.82913822150018</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>98.00068573248018</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>40.96105405076471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1548.766690866869</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1179.804173926457</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1179.804173926457</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>794.0159213282127</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>383.0300165386051</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>371.9979704240057</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>74.41437003277292</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.994039991114</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2756.46356326495</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2425.400675921379</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2425.400675921379</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.9349176603</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.795585684488</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
         <v>767.0908251999817</v>
@@ -4398,10 +4400,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4410,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124868</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
         <v>66.5121164321834</v>
@@ -4486,52 +4488,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X4" t="n">
-        <v>763.7562014862567</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.9636223427266</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>84.48966329598635</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.155841175242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C7" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>673.7332396317246</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T7" t="n">
-        <v>673.7332396317246</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U7" t="n">
-        <v>384.6303727573681</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V7" t="n">
-        <v>384.6303727573681</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="W7" t="n">
-        <v>384.6303727573681</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="X7" t="n">
-        <v>384.6303727573681</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,7 +4825,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2304.808759915836</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>2304.808759915836</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>915.2976972837582</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>723.6118131105845</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>723.6118131105845</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>723.6118131105845</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>723.6118131105845</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W10" t="n">
-        <v>434.1946430736239</v>
+        <v>562.0806046698464</v>
       </c>
       <c r="X10" t="n">
-        <v>434.1946430736239</v>
+        <v>562.0806046698464</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5276,49 +5278,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2012.943648562283</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1723.868421906481</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>951.777212765616</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5512,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,10 +5533,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819173</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695815</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871884</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>369.499740389278</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>202.303641104158</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>4200.220205686194</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>3945.535717480308</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>3656.118547443347</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>3428.128996545329</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>3207.336417401799</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6063,25 +6065,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2796.711301721563</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>2796.711301721563</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.594662309227</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309227</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6248,7 +6250,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311364</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>302.5953191078056</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613761</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6613,58 +6615,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2359.995517520015</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2140.394052542956</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1448.877781913384</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1159.460611876424</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612593</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>886.249074742708</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>736.1324353303722</v>
       </c>
       <c r="E34" t="n">
         <v>631.7012443408905</v>
@@ -6850,58 +6852,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1701.822186476484</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.137698270597</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.720528233637</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7309773356194</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356194</v>
+        <v>1236.833722500854</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,22 +6955,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246301</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C37" t="n">
-        <v>701.3802915967232</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D37" t="n">
-        <v>551.2636521843874</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.7575184984</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.96493935487</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>2490.32382148308</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.386875345992</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O42" t="n">
-        <v>1918.296605585279</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.919755080347</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>230.2762332904625</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>105.2672314396024</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>47.43691740069019</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>198.9093934729008</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.59775584152558</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>8.661728554218797</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.12798163925733</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>24.81829093850939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>161.3036423121226</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>15.02465210191949</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.04708356698229</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>13.30196929556007</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>4.506629716717924</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>118.39184997117</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>48.89210447937313</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>86.46557462472367</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982123</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,13 +26441,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186746</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948259</v>
+        <v>-914494.1029948262</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327665</v>
+        <v>414250.6427327666</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327667</v>
+        <v>414250.6427327666</v>
       </c>
       <c r="E6" t="n">
-        <v>163998.2620943742</v>
+        <v>163998.2620943746</v>
       </c>
       <c r="F6" t="n">
-        <v>489410.7239017297</v>
+        <v>489410.72390173</v>
       </c>
       <c r="G6" t="n">
-        <v>489410.7239017295</v>
+        <v>489410.7239017299</v>
       </c>
       <c r="H6" t="n">
+        <v>489410.72390173</v>
+      </c>
+      <c r="I6" t="n">
+        <v>489410.7239017299</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271879.5215044527</v>
+      </c>
+      <c r="K6" t="n">
+        <v>489410.7239017304</v>
+      </c>
+      <c r="L6" t="n">
+        <v>489410.7239017298</v>
+      </c>
+      <c r="M6" t="n">
+        <v>404355.695966218</v>
+      </c>
+      <c r="N6" t="n">
+        <v>489410.7239017302</v>
+      </c>
+      <c r="O6" t="n">
         <v>489410.7239017296</v>
       </c>
-      <c r="I6" t="n">
-        <v>489410.7239017297</v>
-      </c>
-      <c r="J6" t="n">
-        <v>271879.5215044526</v>
-      </c>
-      <c r="K6" t="n">
-        <v>489410.7239017297</v>
-      </c>
-      <c r="L6" t="n">
-        <v>489410.72390173</v>
-      </c>
-      <c r="M6" t="n">
-        <v>404355.6959662176</v>
-      </c>
-      <c r="N6" t="n">
-        <v>489410.7239017299</v>
-      </c>
-      <c r="O6" t="n">
-        <v>489410.7239017298</v>
-      </c>
       <c r="P6" t="n">
-        <v>489410.72390173</v>
+        <v>489410.7239017301</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.75369870834236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6500681259204271</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>18.81192859552115</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>70.15015910042828</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>272.9783188061495</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>61.72361044681151</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>34.01894947689348</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>67.76309815326042</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>57.41604186302044</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>320.5133764642005</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>83.39873722096529</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>183.4423045235642</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
@@ -31619,7 +31621,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987486</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,7 +32323,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,28 +32785,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,22 +33031,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>400.8433522134838</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157704</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>709.4760096096869</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963275</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>316.2462973459351</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>431.9220107744075</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
@@ -35267,7 +35269,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127271</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,7 +35971,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>509.913862993752</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>578.1342975263536</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M39" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164533</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>176.2645232599136</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>293.3676309945333</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292662.519255344</v>
+        <v>2288649.90924135</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494965.654370345</v>
+        <v>9494965.654370341</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>389.5684993145381</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.823231064583622</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>109.0300086084556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>233.3257147283068</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>92.29457296485806</v>
+        <v>298.7307299422367</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.56196572537024</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.8215551988344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.3177998004601</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>73.44255359698396</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>103.0806938130268</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>158.8661859444888</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>139.7072979240993</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.0270735093607</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>140.7058473537592</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>182.2777079560311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>101.1785556175222</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>87.27508091634331</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>243.4759147696092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>66.39615665301152</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>237.1129912219085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>103.3868790795869</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>133.745793352658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>132.1341815222715</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53.82913822150018</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>135.5795121770523</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>98.00068573248018</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.766690866869</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.804173926457</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.804173926457</v>
+        <v>1302.873252607112</v>
       </c>
       <c r="E2" t="n">
-        <v>794.0159213282127</v>
+        <v>917.0850000088678</v>
       </c>
       <c r="F2" t="n">
-        <v>383.0300165386051</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>371.9979704240057</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>74.41437003277292</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.36653093099</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>326.760077671242</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>326.760077671242</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>176.6434382589063</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="V4" t="n">
-        <v>463.4378502581077</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="W4" t="n">
-        <v>463.4378502581077</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="X4" t="n">
-        <v>235.4482993600903</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>508.4085425014817</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="C5" t="n">
-        <v>828.5436145009811</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>470.2779158942306</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>84.48966329598635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2277.953133796419</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>403.4802848832076</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>403.4802848832076</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>253.3636454708718</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>253.3636454708718</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>106.4736979729615</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452385</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452385</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>609.2899331452385</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>609.2899331452385</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X7" t="n">
-        <v>609.2899331452385</v>
+        <v>403.4802848832076</v>
       </c>
       <c r="Y7" t="n">
-        <v>456.9449278938906</v>
+        <v>403.4802848832076</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3251.421424036461</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2714.380789077113</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2361.612133806998</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915836</v>
+        <v>1988.146375545919</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915836</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122977</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W10" t="n">
-        <v>562.0806046698464</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="X10" t="n">
-        <v>562.0806046698464</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.0806046698464</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991043</v>
+        <v>803.2707707770364</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>634.3345878491295</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>484.2179484367938</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.2179484367938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367938</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516737</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.904861472874</v>
+        <v>1205.711814750806</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>984.9192356072762</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.943648562283</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.868421906481</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.183933700594</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1179.766763663633</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>951.777212765616</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3025.687952571559</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4200.220205686194</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3945.535717480308</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3656.118547443347</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3428.128996545329</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3207.336417401799</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,22 +6074,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,52 +6217,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6311,22 +6311,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180517</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>449.485266605716</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>449.485266605716</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>302.5953191078056</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1448.877781913384</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1159.460611876424</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>931.4710609784063</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,34 +6718,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1055.185257670615</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>886.249074742708</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>736.1324353303722</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1975.033022579363</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1685.615852542402</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1457.626301644385</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1236.833722500854</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,19 +6934,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.4413279836774</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1553.289092892425</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1263.871922855465</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.882371957447</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>815.0897928139171</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.8410298377091</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.448509608146</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2246.448509608146</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1702.688794746457</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.271624709496</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.282073811479</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.4894946679489</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703114</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C43" t="n">
-        <v>695.5020655703114</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D43" t="n">
-        <v>545.3854261579756</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>397.4723325755825</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>397.4723325755825</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>230.2762332904625</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>416.6057892068301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>416.6057892068301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.5874149221245659</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5.728115292809946</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>35.12774237125717</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>47.43691740069019</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>198.9093934729008</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8.661728554218797</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.12798163925733</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>15.02465210191949</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>43.04708356698229</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>118.39184997117</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>48.89210447937313</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>86.46557462472367</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>45.44677382459227</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852897</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398212</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26441,13 +26441,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186732</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186746</v>
-      </c>
       <c r="L4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948262</v>
+        <v>-914494.1029948263</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327666</v>
+        <v>414250.6427327662</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327666</v>
+        <v>414250.642732767</v>
       </c>
       <c r="E6" t="n">
-        <v>163998.2620943746</v>
+        <v>163650.8828400182</v>
       </c>
       <c r="F6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="G6" t="n">
-        <v>489410.7239017299</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="H6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="I6" t="n">
-        <v>489410.7239017299</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="J6" t="n">
-        <v>271879.5215044527</v>
+        <v>271532.1422500952</v>
       </c>
       <c r="K6" t="n">
-        <v>489410.7239017304</v>
+        <v>489063.3446473728</v>
       </c>
       <c r="L6" t="n">
-        <v>489410.7239017298</v>
+        <v>489063.3446473729</v>
       </c>
       <c r="M6" t="n">
-        <v>404355.695966218</v>
+        <v>404008.3167118609</v>
       </c>
       <c r="N6" t="n">
-        <v>489410.7239017302</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="O6" t="n">
-        <v>489410.7239017296</v>
+        <v>489063.3446473728</v>
       </c>
       <c r="P6" t="n">
-        <v>489410.7239017301</v>
+        <v>489063.3446473728</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17.30754642717335</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>33.75369870834236</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>37.40395403811355</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>18.81192859552115</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>272.9783188061495</v>
+        <v>66.54216182877087</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>126.463842533658</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.76309815326042</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.41604186302044</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.74520819119185</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>183.4423045235642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>66.84346944454839</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L20" t="n">
         <v>867.8464071162563</v>
@@ -32548,16 +32548,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>499.3768644016567</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>691.6611968462889</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157704</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,16 +34207,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>431.9220107744075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066292</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L20" t="n">
         <v>632.079992146269</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>314.9434509778017</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>368.0351523183234</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>560.3194847629557</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>509.913862993752</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164533</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>293.3676309945333</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288649.90924135</v>
+        <v>2290410.439544135</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>389.5684993145381</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>410.8803375628011</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734125409</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>109.0300086084556</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>91.08961615110748</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>298.7307299422367</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>42.64559995940495</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>39.56196572537024</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.5958321755021</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.44255359698396</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414546</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>158.8661859444888</v>
+        <v>15.31548816222291</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>139.7072979240993</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>223.154644614304</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>140.7058473537592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000745</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756243</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9154861872836</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>135.5795121770523</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>199.9811704213157</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213863</v>
+        <v>1274.539111149742</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.138951213863</v>
+        <v>1274.539111149742</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.873252607112</v>
+        <v>916.2734125429918</v>
       </c>
       <c r="E2" t="n">
-        <v>917.0850000088678</v>
+        <v>530.4851599447475</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>523.539659195544</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2051.278283189676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>1661.138951213864</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326.760077671242</v>
+        <v>700.0944266746561</v>
       </c>
       <c r="C4" t="n">
-        <v>326.760077671242</v>
+        <v>700.0944266746561</v>
       </c>
       <c r="D4" t="n">
-        <v>176.6434382589063</v>
+        <v>549.9777872623204</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>402.0646936799272</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="V4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="W4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="X4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.4085425014817</v>
+        <v>700.0944266746561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796419</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296688</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3282.529458013814</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796419</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796419</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403.4802848832076</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>403.4802848832076</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>253.3636454708718</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>253.3636454708718</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>106.4736979729615</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218345</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812249</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832076</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.4802848832076</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1771.418012197381</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1402.455495256969</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1044.189796650219</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>658.4015440519743</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5441625467829</v>
+        <v>247.4156392623667</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>236.3835931477673</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3251.421424036461</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3045.443676420683</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3045.443676420683</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2714.380789077113</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.612133806998</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X8" t="n">
-        <v>1988.146375545919</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218345</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U10" t="n">
-        <v>631.784138943829</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379422</v>
+        <v>666.2025176122989</v>
       </c>
       <c r="W10" t="n">
-        <v>377.0996507379422</v>
+        <v>376.7853475753383</v>
       </c>
       <c r="X10" t="n">
-        <v>216.6287558445192</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445192</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770364</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491295</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>484.2179484367938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.2179484367938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.0218491516737</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648824</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750806</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072762</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,7 +6016,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6141,37 +6141,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2254.869721166297</v>
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,28 +6241,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,16 +7074,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,46 +7095,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
         <v>974.1018203925706</v>
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,46 +7332,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
         <v>974.1018203925706</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.7594328861248</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C43" t="n">
-        <v>390.823249958218</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458822</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2242.968377633621</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2023.366912656562</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.29168600076</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V43" t="n">
-        <v>1479.607197794873</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W43" t="n">
-        <v>1190.190027757912</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X43" t="n">
-        <v>962.2004768598947</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.4078977163646</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5874149221245659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>63.368353722287</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.728115292809946</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891697</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516639</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.33133491134424</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>45.44677382459227</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.42427990597261</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821175.3108852897</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.949767504</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
@@ -26334,28 +26334,28 @@
         <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405237</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405246</v>
@@ -26429,19 +26429,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948263</v>
+        <v>-914494.1029948269</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327662</v>
+        <v>414250.6427327669</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.642732767</v>
+        <v>414250.642732766</v>
       </c>
       <c r="E6" t="n">
-        <v>163650.8828400182</v>
+        <v>163963.5241689389</v>
       </c>
       <c r="F6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762943</v>
       </c>
       <c r="G6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762942</v>
       </c>
       <c r="H6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.985976294</v>
       </c>
       <c r="I6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762939</v>
       </c>
       <c r="J6" t="n">
-        <v>271532.1422500952</v>
+        <v>271844.7835790166</v>
       </c>
       <c r="K6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762944</v>
       </c>
       <c r="L6" t="n">
-        <v>489063.3446473729</v>
+        <v>489375.9859762944</v>
       </c>
       <c r="M6" t="n">
-        <v>404008.3167118609</v>
+        <v>404320.9580407823</v>
       </c>
       <c r="N6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762943</v>
       </c>
       <c r="O6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762938</v>
       </c>
       <c r="P6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762939</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022931</v>
@@ -26801,25 +26801,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>17.30754642717335</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.04138809065239002</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-2.805783383408311e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.40395403811355</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>54.33143187182377</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>66.54216182877087</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>161.2723701802152</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>126.463842533658</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>168.0119322118184</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.74520819119185</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.84346944454839</v>
+        <v>210.3941672268142</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-3.430228579335942e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
@@ -31527,31 +31527,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
         <v>19.17787942451121</v>
@@ -31600,43 +31600,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,19 +31679,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883116</v>
@@ -31706,13 +31706,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32010,7 +32010,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O14" t="n">
         <v>926.5868626460029</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
         <v>173.0392293230784</v>
@@ -35348,10 +35348,10 @@
         <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066292</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35658,7 +35658,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191268</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
